--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1268671.503992956</v>
+        <v>1266190.584167497</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>311.5421709421911</v>
       </c>
       <c r="E11" t="n">
-        <v>248.0997051460687</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292093</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>127.2541205126198</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>245.564442382486</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545851</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857996</v>
+        <v>0.4723005484613996</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>128.0633671296612</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913427</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>16.45633676308246</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>11.34836975753863</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443156</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890429</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>187.3753358887803</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245677</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>97.90474570419687</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>168.3363911711823</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5386794408502</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>275.0274093258345</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245677</v>
       </c>
       <c r="T20" t="n">
-        <v>92.80638609324851</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>270.8187860258909</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408502</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G22" t="n">
-        <v>154.5302192482707</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>214.2140663782821</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245678</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249339</v>
+        <v>74.7201898124933</v>
       </c>
       <c r="E25" t="n">
-        <v>134.9383736358117</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721219</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330926</v>
+        <v>154.5302192482731</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860173</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432828</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2843,7 +2843,7 @@
         <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210282</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007074</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052273</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482614</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092312</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621568</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333679</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>230.7340562419016</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957229</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>170.2318734253267</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.3104517307971</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,16 +3664,16 @@
         <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.5480262953164</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
         <v>47.07029468621589</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>134.2912433677299</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
         <v>188.8382781084861</v>
@@ -3727,7 +3727,7 @@
         <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007095</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3907,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482635</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>89.27723295060848</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>196.6598613601169</v>
       </c>
       <c r="W43" t="n">
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239899</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007071</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F46" t="n">
-        <v>91.27556587748639</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>99.36210032693408</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
@@ -4195,13 +4195,13 @@
         <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1705.062095610498</v>
+        <v>1526.276415254444</v>
       </c>
       <c r="C11" t="n">
-        <v>1705.062095610498</v>
+        <v>1526.276415254444</v>
       </c>
       <c r="D11" t="n">
-        <v>1373.988464263471</v>
+        <v>1211.587353696676</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>852.9911683581551</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597802</v>
+        <v>469.1973308282712</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645003</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299113</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5069,22 +5069,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3146.820141253117</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.267412142731</v>
+        <v>2920.481731786677</v>
       </c>
       <c r="V11" t="n">
-        <v>3099.267412142731</v>
+        <v>2920.481731786677</v>
       </c>
       <c r="W11" t="n">
-        <v>2773.69082413234</v>
+        <v>2594.905143776286</v>
       </c>
       <c r="X11" t="n">
-        <v>2427.417133130984</v>
+        <v>2248.63145277493</v>
       </c>
       <c r="Y11" t="n">
-        <v>2064.469868414896</v>
+        <v>1885.684188058842</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>638.8040676328889</v>
+        <v>689.3914840336271</v>
       </c>
       <c r="C13" t="n">
-        <v>638.8040676328889</v>
+        <v>689.3914840336271</v>
       </c>
       <c r="D13" t="n">
-        <v>515.8794954802771</v>
+        <v>566.4669118810151</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802771</v>
+        <v>445.7458855583458</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420904</v>
+        <v>326.0480053201593</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.830386493022</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="U13" t="n">
-        <v>1522.919586878389</v>
+        <v>1727.963400849644</v>
       </c>
       <c r="V13" t="n">
-        <v>1295.427165932226</v>
+        <v>1500.47097990348</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.202063154989</v>
+        <v>1238.245877126243</v>
       </c>
       <c r="X13" t="n">
-        <v>832.4045795166953</v>
+        <v>1037.448393487949</v>
       </c>
       <c r="Y13" t="n">
-        <v>638.8040676328889</v>
+        <v>843.8478816041431</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1823.749336508873</v>
+        <v>1752.614824720883</v>
       </c>
       <c r="C14" t="n">
-        <v>1481.978886828185</v>
+        <v>1410.844375040195</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828185</v>
+        <v>1079.770743693169</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>721.1745583546482</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597802</v>
+        <v>337.3807208247644</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645005</v>
+        <v>337.3807208247644</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299127</v>
+        <v>66.98918769325519</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5306,22 +5306,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3146.820141253117</v>
       </c>
       <c r="U14" t="n">
-        <v>3196.248885114563</v>
+        <v>3146.820141253117</v>
       </c>
       <c r="V14" t="n">
-        <v>2892.378065030716</v>
+        <v>3146.820141253117</v>
       </c>
       <c r="W14" t="n">
-        <v>2892.378065030716</v>
+        <v>2821.243553242726</v>
       </c>
       <c r="X14" t="n">
-        <v>2546.104374029359</v>
+        <v>2474.96986224137</v>
       </c>
       <c r="Y14" t="n">
-        <v>2183.157109313271</v>
+        <v>2112.022597525282</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>480.9510275436833</v>
+        <v>777.3810026451364</v>
       </c>
       <c r="C16" t="n">
-        <v>339.2069118754999</v>
+        <v>635.6368869769532</v>
       </c>
       <c r="D16" t="n">
-        <v>339.2069118754999</v>
+        <v>512.7123148243411</v>
       </c>
       <c r="E16" t="n">
-        <v>218.4858855528304</v>
+        <v>391.9912885016716</v>
       </c>
       <c r="F16" t="n">
-        <v>218.4858855528304</v>
+        <v>272.2934082634849</v>
       </c>
       <c r="G16" t="n">
-        <v>77.97511618727295</v>
+        <v>255.670845876533</v>
       </c>
       <c r="H16" t="n">
-        <v>77.97511618727295</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402566</v>
+        <v>712.1345656402575</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.94255636106</v>
+        <v>1082.942556361062</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058533</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145083</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="T16" t="n">
-        <v>1781.433743974333</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.5229443597</v>
+        <v>1815.952919461153</v>
       </c>
       <c r="V16" t="n">
-        <v>1292.030523413537</v>
+        <v>1588.46049851499</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.8054206363</v>
+        <v>1326.235395737753</v>
       </c>
       <c r="X16" t="n">
-        <v>829.007936998006</v>
+        <v>1125.437912099459</v>
       </c>
       <c r="Y16" t="n">
-        <v>635.4074251141994</v>
+        <v>931.8374002156525</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1733.441802325478</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
-        <v>1439.120985592863</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>1155.496987193909</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628258</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5516,7 +5516,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5528,7 +5528,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5537,28 +5537,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3289.956853344064</v>
       </c>
       <c r="T17" t="n">
-        <v>3194.269774201191</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U17" t="n">
-        <v>3194.269774201191</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="V17" t="n">
-        <v>2937.848587065418</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="W17" t="n">
-        <v>2659.7216320031</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="X17" t="n">
-        <v>2360.897573949817</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y17" t="n">
-        <v>2045.399942181803</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5568,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872288</v>
+        <v>569.1217789872281</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671189</v>
+        <v>474.8272962671183</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625801</v>
+        <v>399.3523570625796</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879839</v>
+        <v>326.0809636879835</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978702</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604113</v>
+        <v>89.19609340604104</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5674,16 +5674,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356252</v>
+        <v>1038.657267371952</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454048</v>
+        <v>885.3094166817312</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096716</v>
+        <v>739.1585377459982</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666652</v>
+        <v>1544.173786276204</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1249.85296954359</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="E20" t="n">
-        <v>966.228971144636</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628255</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5768,34 +5768,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
         <v>3289.956853344064</v>
       </c>
       <c r="T20" t="n">
-        <v>3196.213029007448</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U20" t="n">
-        <v>3017.324252489082</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2760.903065353308</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2482.776110290991</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290991</v>
+        <v>2171.629557900544</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522976</v>
+        <v>1856.131926132529</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235535</v>
+        <v>569.1217789872281</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034436</v>
+        <v>474.8272962671183</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989048</v>
+        <v>399.3523570625796</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243086</v>
+        <v>326.0809636879835</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8627105341952</v>
+        <v>253.8327163978702</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604116</v>
+        <v>89.19609340604104</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5911,13 +5911,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865763</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.65726737195</v>
+        <v>1038.657267371952</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817295</v>
+        <v>822.2794225454039</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459963</v>
+        <v>676.1285436096708</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056952</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.0946095349357</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531251</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
         <v>73.3777548224824</v>
@@ -5987,28 +5987,28 @@
         <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>388.4813261528516</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>722.3006998426981</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1173.334913091107</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1706.866817763032</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2253.645634821814</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454458</v>
+        <v>2756.618105701151</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3151.392472058329</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
         <v>3668.88774112412</v>
@@ -6017,16 +6017,16 @@
         <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451032</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
         <v>2489.641748681291</v>
@@ -6054,25 +6054,25 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934471</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061124</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6081,7 +6081,7 @@
         <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
         <v>2414.27762327704</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138525</v>
+        <v>639.0174115138544</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937425</v>
+        <v>544.7229287937446</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892038</v>
+        <v>469.2479895892059</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>395.9765962146098</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>323.7283489244965</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634013</v>
+        <v>96.06173179634003</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.927245478739</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256062</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762249</v>
+        <v>1045.522905762251</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720285</v>
+        <v>892.1750550720302</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362953</v>
+        <v>746.0241761362971</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>875.9322461484385</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1326.966459396847</v>
       </c>
       <c r="M26" t="n">
-        <v>1986.936041136909</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N26" t="n">
-        <v>2533.714858195691</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075028</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T27" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V27" t="n">
         <v>1794.243147664371</v>
@@ -6345,10 +6345,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973143</v>
@@ -6391,7 +6391,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,34 +6400,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="29">
@@ -6437,64 +6437,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>390.9762157434861</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>1045.699547878786</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1496.733761127194</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2030.265665799119</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2577.044482857901</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737238</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3728.510094301078</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6625,10 +6625,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643395</v>
@@ -6853,16 +6853,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6871,10 +6871,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464988</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307346</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960654</v>
       </c>
     </row>
     <row r="36">
@@ -7008,19 +7008,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,10 +7032,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909351</v>
+        <v>599.6022649647792</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368717</v>
+        <v>529.3375166107157</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245359</v>
+        <v>477.8923117722234</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159864</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891711</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908613</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.5792952211748</v>
+        <v>682.5792952211756</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7172,28 +7172,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064548</v>
@@ -7251,13 +7251,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650705</v>
+        <v>698.2736995386229</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110069</v>
+        <v>628.0089511845592</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725146</v>
+        <v>477.8923117722235</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639648</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F40" t="n">
-        <v>225.7225416660544</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404823</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515028</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.397562552288</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W40" t="n">
-        <v>976.651827089171</v>
+        <v>1032.68999068888</v>
       </c>
       <c r="X40" t="n">
-        <v>847.333710764997</v>
+        <v>903.3718743647059</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214669</v>
+        <v>781.2507297950192</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,34 +7409,34 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
@@ -7445,10 +7445,10 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
@@ -7482,19 +7482,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,7 +7506,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.2355359389135</v>
+        <v>796.945134112466</v>
       </c>
       <c r="C43" t="n">
-        <v>571.9707875848499</v>
+        <v>726.6803857584025</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725141</v>
+        <v>576.5637463460668</v>
       </c>
       <c r="E43" t="n">
-        <v>273.941054590121</v>
+        <v>428.6506527636736</v>
       </c>
       <c r="F43" t="n">
-        <v>225.722541666054</v>
+        <v>281.7607052657633</v>
       </c>
       <c r="G43" t="n">
-        <v>156.6911396146162</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7570,13 +7570,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632531</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758175</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126131</v>
+        <v>1322.10716072584</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663014</v>
+        <v>1131.361425262723</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649966</v>
+        <v>1002.043308938549</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953098</v>
+        <v>879.9221643688624</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
         <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810568</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7676,7 +7676,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515856</v>
@@ -7719,19 +7719,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,7 +7743,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>740.9069705127573</v>
+        <v>651.0765132702858</v>
       </c>
       <c r="C46" t="n">
-        <v>670.6422221586938</v>
+        <v>580.8117649162223</v>
       </c>
       <c r="D46" t="n">
-        <v>619.1970173202014</v>
+        <v>529.3665600777299</v>
       </c>
       <c r="E46" t="n">
-        <v>569.9553583116517</v>
+        <v>480.1249010691802</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212614</v>
+        <v>333.2349535712698</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959804</v>
+        <v>264.2035515198321</v>
       </c>
       <c r="H46" t="n">
         <v>163.8377936138381</v>
@@ -7807,13 +7807,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058688</v>
+        <v>1621.35446039006</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758175</v>
+        <v>1430.923028089547</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1274.909974457503</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663014</v>
+        <v>985.4928044205428</v>
       </c>
       <c r="X46" t="n">
-        <v>946.0051453388404</v>
+        <v>856.1746880963689</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.8840007691537</v>
+        <v>734.0535435266821</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430623</v>
+        <v>157.2353108430634</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728996</v>
+        <v>184.4039433729013</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389589</v>
+        <v>191.494890938961</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333051</v>
+        <v>181.0856325333074</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830224</v>
+        <v>179.3553748830248</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383974</v>
+        <v>182.8301554383997</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586571</v>
+        <v>190.8908035586591</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266114</v>
+        <v>192.0103836266128</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875969</v>
+        <v>112.6562001875976</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372525</v>
+        <v>113.6031223372536</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672263</v>
+        <v>105.9629718672278</v>
       </c>
       <c r="M9" t="n">
-        <v>104.101398125358</v>
+        <v>104.1013981253598</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677524</v>
+        <v>92.30246558677709</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359724</v>
+        <v>106.882960835974</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798314</v>
+        <v>105.3113487798328</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615451</v>
+        <v>120.821278461546</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564652</v>
+        <v>116.175525256466</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085221</v>
+        <v>119.199607408523</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140771</v>
+        <v>108.428412314078</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530919</v>
+        <v>120.6694600530927</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662699</v>
+        <v>122.5080856662707</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="R20" t="n">
-        <v>1.911359959194669e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>127.4994347185291</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8144253784355</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>274.8351763665428</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>402.5500016878941</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>122.1718867553249</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>21.74982042514679</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665443</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>16.22072409136533</v>
       </c>
       <c r="E11" t="n">
-        <v>106.9105183390667</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104944</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>65.37468217642302</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>13.72724923600046</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.18448263733813</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104949</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>96.01165824211444</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>122.6493249088193</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>58.08390406517312</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292099</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>120.6597509777626</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245682</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>79.19514304898604</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>37.21630084065267</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>25.01703144685911</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.829647544582258e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>990883.4277457655</v>
+        <v>990883.4277457665</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814692.8802957188</v>
+        <v>814692.880295719</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>886182.7826714369</v>
+        <v>886182.7826714368</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>944173.9048033615</v>
+        <v>944173.9048033613</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>944173.9048033614</v>
+        <v>944173.9048033613</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915344.8261509583</v>
+        <v>915344.8261509582</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915344.8261509583</v>
+        <v>915344.8261509582</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
         <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
-        <v>532544.1353738653</v>
+        <v>532544.1353738651</v>
       </c>
       <c r="E2" t="n">
-        <v>474201.0005882339</v>
+        <v>474201.0005882342</v>
       </c>
       <c r="F2" t="n">
-        <v>474201.0005882339</v>
+        <v>474201.0005882342</v>
       </c>
       <c r="G2" t="n">
         <v>516445.0338102492</v>
@@ -26332,28 +26332,28 @@
         <v>516445.0338102491</v>
       </c>
       <c r="I2" t="n">
+        <v>533677.1504117848</v>
+      </c>
+      <c r="J2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="L2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="M2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="N2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="O2" t="n">
         <v>533677.1504117841</v>
       </c>
-      <c r="K2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>533677.1504117842</v>
-      </c>
-      <c r="M2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="N2" t="n">
-        <v>533677.1504117841</v>
-      </c>
-      <c r="O2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="P2" t="n">
-        <v>533677.1504117843</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552483</v>
+        <v>59764.55367552202</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.97216363</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487409</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.4330217969</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487409</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954644</v>
+        <v>430603.4278954654</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364973</v>
+        <v>40024.16194364979</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364968</v>
+        <v>40024.16194364974</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509195</v>
+        <v>77052.32230509202</v>
       </c>
       <c r="H4" t="n">
         <v>77052.32230509204</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754389</v>
+        <v>90617.51027754386</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699588</v>
+        <v>88960.95519699578</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.9551969959</v>
+        <v>88960.9551969958</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699588</v>
+        <v>88960.95519699577</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818185</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="O4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="P4" t="n">
-        <v>92183.89891818179</v>
+        <v>92183.89891818172</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186641</v>
+        <v>35148.90543186634</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26485,7 +26485,7 @@
         <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46502.02961710978</v>
+        <v>46497.61603924178</v>
       </c>
       <c r="C6" t="n">
-        <v>46502.02961710978</v>
+        <v>46497.61603924166</v>
       </c>
       <c r="D6" t="n">
-        <v>7027.248371009657</v>
+        <v>7022.890620865517</v>
       </c>
       <c r="E6" t="n">
-        <v>-731631.6238838724</v>
+        <v>-731860.3783062731</v>
       </c>
       <c r="F6" t="n">
-        <v>357607.3482797579</v>
+        <v>357378.5938573598</v>
       </c>
       <c r="G6" t="n">
-        <v>321293.9590850683</v>
+        <v>321227.6817135238</v>
       </c>
       <c r="H6" t="n">
-        <v>358874.0683799425</v>
+        <v>358807.7910083978</v>
       </c>
       <c r="I6" t="n">
-        <v>334501.6440025648</v>
+        <v>334501.6440025652</v>
       </c>
       <c r="J6" t="n">
-        <v>329928.8205181852</v>
+        <v>329928.8205181856</v>
       </c>
       <c r="K6" t="n">
-        <v>355338.2535399824</v>
+        <v>355338.2535399823</v>
       </c>
       <c r="L6" t="n">
-        <v>317758.1442451081</v>
+        <v>317758.1442451084</v>
       </c>
       <c r="M6" t="n">
-        <v>156806.5541946286</v>
+        <v>156806.5541946281</v>
       </c>
       <c r="N6" t="n">
+        <v>358974.6541873527</v>
+      </c>
+      <c r="O6" t="n">
+        <v>358974.6541873525</v>
+      </c>
+      <c r="P6" t="n">
         <v>358974.6541873526</v>
-      </c>
-      <c r="O6" t="n">
-        <v>358974.6541873528</v>
-      </c>
-      <c r="P6" t="n">
-        <v>358974.6541873527</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N2" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790881</v>
+        <v>69.78465283790553</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>46.97513661859264</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859261</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="M2" t="n">
-        <v>50.70958360951254</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790881</v>
+        <v>69.78465283790553</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.99204775539</v>
+        <v>1019.992047755393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959703</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104723</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780169</v>
+        <v>132.2465643780177</v>
       </c>
       <c r="S8" t="n">
-        <v>202.627234303657</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672089</v>
+        <v>84.22861846672113</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987486</v>
+        <v>90.8382912698753</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241795</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519053</v>
+        <v>84.46220888519095</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989831</v>
+        <v>7.64903505099052</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317015</v>
+        <v>75.62456067317065</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571897</v>
+        <v>11.495589010755</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W19" t="n">
-        <v>11.49558901075653</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G22" t="n">
-        <v>11.49558901075753</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075503</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E25" t="n">
-        <v>11.4955890107575</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075511</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>55.47778196371129</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.47778196371047</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="38">
@@ -30384,16 +30384,16 @@
         <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>97.68472022810489</v>
-      </c>
-      <c r="E40" t="n">
-        <v>97.68472022810489</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>55.47778196371185</v>
       </c>
       <c r="H40" t="n">
         <v>97.68472022810489</v>
@@ -30429,16 +30429,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
+        <v>55.477781963712</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>97.68472022810489</v>
       </c>
-      <c r="T40" t="n">
+      <c r="V40" t="n">
         <v>97.68472022810489</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>97.68472022810489</v>
@@ -30447,7 +30447,7 @@
         <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -30627,16 +30627,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
-        <v>55.4777819637123</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371107</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F46" t="n">
-        <v>54.14548214544486</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>45.3929145873867</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413417</v>
+        <v>0.2805413179413285</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366767</v>
+        <v>2.873093772366631</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993359</v>
+        <v>10.81556915993308</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362397</v>
+        <v>23.81059368362286</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208098</v>
+        <v>35.6859076720793</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102832</v>
+        <v>44.27152403102624</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396766</v>
+        <v>49.26060069396534</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135685</v>
+        <v>50.05768871356614</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328928</v>
+        <v>47.26805598328706</v>
       </c>
       <c r="P8" t="n">
-        <v>40.3421921966124</v>
+        <v>40.3421921966105</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783809</v>
+        <v>30.29530624783666</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313282</v>
+        <v>17.62255356313199</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588331</v>
+        <v>6.39283528258803</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288224</v>
+        <v>1.228069619288166</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530734</v>
+        <v>0.02244330543530628</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796529</v>
+        <v>0.1501028381796458</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840332</v>
+        <v>1.449677410840264</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694191</v>
+        <v>5.168014384693948</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906975</v>
+        <v>14.18142647906909</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2383166371065</v>
+        <v>24.23831663710536</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264789</v>
+        <v>32.59140791264635</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666029</v>
+        <v>38.0326357966585</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655806</v>
+        <v>39.03924649655622</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847207</v>
+        <v>35.71328360847038</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449881</v>
+        <v>28.66305863449746</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.1604956244764</v>
+        <v>19.1604956244755</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768278</v>
+        <v>9.319542882767839</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608902</v>
+        <v>2.788094384608771</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890393</v>
+        <v>0.6050197731890109</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345591</v>
+        <v>0.009875186722345126</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125841177248688</v>
+        <v>0.1258411772486821</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811063</v>
+        <v>1.118842466811011</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078727</v>
+        <v>3.78438740307855</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482242</v>
+        <v>8.896971231481823</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489302</v>
+        <v>14.62045677489233</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477313</v>
+        <v>18.70915102477225</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908297</v>
+        <v>19.72617653908204</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115606</v>
+        <v>19.25713215115515</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875092</v>
+        <v>17.78707839875009</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287768</v>
+        <v>15.21991838287696</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852423</v>
+        <v>10.53748257852373</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381916</v>
+        <v>5.658276933381649</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233953</v>
+        <v>2.19306851623385</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625758</v>
+        <v>0.5376850300625505</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564808</v>
+        <v>0.006864064213564485</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.512347035316</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,10 +33731,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,28 +33743,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019269</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019258</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222663</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>318.2864356872416</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8674262666545</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.670908060957</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>612.0264629219433</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>941.4711175181206</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>312.9588877240374</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>272.5441252288663</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794555</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,19 +37391,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302282</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.191286555402</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
